--- a/overview.xlsx
+++ b/overview.xlsx
@@ -1,41 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vectorzhou/Dropbox/RLforCO_experiments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE11C0C4-0E72-AA46-B43A-8AD8E5F20E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="3980" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{9BCDBB04-0DE5-6F4D-B295-EBB54B520BEC}"/>
+    <workbookView windowHeight="13703" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="6" r:id="rId1"/>
     <sheet name="OKD" sheetId="4" r:id="rId2"/>
+    <sheet name="ADW" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
+  <si>
+    <t>distr_type</t>
+  </si>
   <si>
     <t>sample_type</t>
   </si>
@@ -43,34 +27,133 @@
     <t>init_type</t>
   </si>
   <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>final episode</t>
+  </si>
+  <si>
+    <t>n_start</t>
+  </si>
+  <si>
+    <t>n_end</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Exp-20220116-091502-SP</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
     <t>pi^t-pi^0</t>
   </si>
   <si>
     <t>pi^0</t>
   </si>
   <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>batch_size</t>
-  </si>
-  <si>
-    <t>n_start</t>
-  </si>
-  <si>
-    <t>n_end</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t>Exp-20220116-091645-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220117-090848-SP</t>
   </si>
   <si>
     <t>pi^t</t>
   </si>
   <si>
+    <t>Exp-20220117-090813-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220116-112702-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220116-112733-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220116-112813-SP</t>
+  </si>
+  <si>
     <t>pi^0-pi^t</t>
   </si>
   <si>
-    <t>final episode</t>
+    <t>Exp-20220116-112836-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-121504-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-121550-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165316-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-121419-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165201-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165356-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-120904-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-121237-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-144437-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-144507-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-144633-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-144727-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165757-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165902-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-145015-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165454-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165537-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165614-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-185932-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-165945-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-210922-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-185747-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-185824-SP</t>
+  </si>
+  <si>
+    <t>Exp-20220114-185852-SP</t>
   </si>
   <si>
     <t>start</t>
@@ -79,96 +162,27 @@
     <t>end</t>
   </si>
   <si>
+    <t>Exp-20220120-204913-OKD</t>
+  </si>
+  <si>
     <t>(10,1,2)</t>
   </si>
   <si>
     <t>(100,10,25)</t>
   </si>
   <si>
-    <t>distr_type</t>
-  </si>
-  <si>
-    <t>uniform</t>
-  </si>
-  <si>
-    <t>Exp-20220114-120904-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-121237-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-121419-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-121504-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-121550-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-144437-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-144507-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-144633-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-144727-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-145015-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165201-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165316-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165356-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165454-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165537-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165614-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165757-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165902-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-165945-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-185747-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-185824-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-185852-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-185932-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220114-210922-SP</t>
-  </si>
-  <si>
     <t>Exp-20220115-093200-OKD</t>
   </si>
   <si>
     <t>Exp-20220115-093239-OKD</t>
   </si>
   <si>
+    <t>Exp-20220120-204459-OKD</t>
+  </si>
+  <si>
+    <t>Exp-20220121-173212-OKD</t>
+  </si>
+  <si>
     <t>(10,1.5,2.5)</t>
   </si>
   <si>
@@ -181,96 +195,454 @@
     <t>Exp-20220115-201602-OKD</t>
   </si>
   <si>
+    <t>Exp-20220120-204716-OKD</t>
+  </si>
+  <si>
+    <t>Exp-20220120-204832-OKD</t>
+  </si>
+  <si>
+    <t>(10,1,3)</t>
+  </si>
+  <si>
     <t>(100,8,25)</t>
   </si>
   <si>
-    <t>(10,1,3)</t>
-  </si>
-  <si>
     <t>Exp-20220115-232156-OKD</t>
   </si>
   <si>
     <t>Exp-20220116-091233-OKD</t>
   </si>
   <si>
-    <t>Exp-20220116-091502-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220116-091645-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220116-112702-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220116-112733-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220116-112813-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220116-112836-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220117-090813-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220117-090848-SP</t>
-  </si>
-  <si>
-    <t>Exp-20220120-204459-OKD</t>
-  </si>
-  <si>
-    <t>Exp-20220120-204716-OKD</t>
-  </si>
-  <si>
-    <t>Exp-20220120-204832-OKD</t>
-  </si>
-  <si>
-    <t>Exp-20220120-204913-OKD</t>
-  </si>
-  <si>
     <t>Exp-20220120-205113-OKD</t>
   </si>
   <si>
-    <t>Exp-20220121-173212-OKD</t>
+    <t>start(n,m,V)</t>
+  </si>
+  <si>
+    <t>end(n,m,V)</t>
+  </si>
+  <si>
+    <t>Exp-20230121-114611-ADW</t>
+  </si>
+  <si>
+    <t>(6,3,2.7)</t>
+  </si>
+  <si>
+    <t>(20,10,9)</t>
+  </si>
+  <si>
+    <t>Exp-20230121-145531-ADW</t>
+  </si>
+  <si>
+    <t>Exp-20230121-160835-ADW</t>
+  </si>
+  <si>
+    <t>Exp-20230121-134028-ADW</t>
+  </si>
+  <si>
+    <t>Exp-20230126-012751-ADW</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>(6,3,2.64)</t>
+  </si>
+  <si>
+    <t>(32,8,7.04)</t>
+  </si>
+  <si>
+    <t>Exp-20230125-222152-ADW</t>
+  </si>
+  <si>
+    <t>Exp-20230126-040913-ADW</t>
+  </si>
+  <si>
+    <t>speical</t>
+  </si>
+  <si>
+    <t>Exp-20230125-235911-ADW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -278,9 +650,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -290,17 +904,61 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,7 +1007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -382,26 +1040,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,23 +1075,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,57 +1216,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5CFEEB-8D22-8245-AB0C-A5931B948084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="6.16666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.83333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="6.16666666666667" customWidth="1"/>
+    <col min="10" max="10" width="5.16666666666667" customWidth="1"/>
+    <col min="11" max="11" width="6.16666666666667" style="4" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -654,18 +1273,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0.2</v>
@@ -686,18 +1305,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -718,18 +1337,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -750,18 +1369,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -782,18 +1401,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0.2</v>
@@ -814,18 +1433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0.2</v>
@@ -846,18 +1465,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0.2</v>
@@ -878,18 +1497,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0.2</v>
@@ -910,18 +1529,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2018011309</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0.2</v>
@@ -942,18 +1561,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>2018011309</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0.2</v>
@@ -974,18 +1593,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>2018011309</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0.2</v>
@@ -1006,18 +1625,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>2018011309</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0.2</v>
@@ -1038,18 +1657,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>2018011309</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0.2</v>
@@ -1070,18 +1689,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>2018011309</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0.2</v>
@@ -1102,18 +1721,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>2018011309</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0.2</v>
@@ -1134,18 +1753,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>2018011309</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0.2</v>
@@ -1166,18 +1785,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>19283746</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -1198,18 +1817,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>19283746</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0.2</v>
@@ -1230,18 +1849,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>19283746</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0.2</v>
@@ -1262,18 +1881,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>19283746</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>0.2</v>
@@ -1294,7 +1913,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -1302,10 +1921,10 @@
         <v>19283746</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>0.2</v>
@@ -1327,7 +1946,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1335,10 +1954,10 @@
         <v>19283746</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>0.2</v>
@@ -1360,18 +1979,18 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>19283746</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0.2</v>
@@ -1392,18 +2011,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>19283746</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0.2</v>
@@ -1424,18 +2043,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>200000308</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>0.2</v>
@@ -1456,18 +2075,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>200000308</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <v>0.2</v>
@@ -1488,7 +2107,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
@@ -1496,10 +2115,10 @@
         <v>200000308</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>0.2</v>
@@ -1520,18 +2139,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>200000308</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>0.2</v>
@@ -1552,18 +2171,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2">
         <v>200000308</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <v>0.2</v>
@@ -1584,18 +2203,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2">
         <v>200000308</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>0.2</v>
@@ -1616,18 +2235,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>200000308</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0.2</v>
@@ -1648,18 +2267,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>200000308</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0.2</v>
@@ -1682,69 +2301,71 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92431A2-9248-D940-90FF-F62110A48567}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.8333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.83333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
+    <col min="8" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="6.83333333333333" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -1756,24 +2377,24 @@
         <v>10000</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0.1</v>
@@ -1785,24 +2406,24 @@
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -1814,24 +2435,24 @@
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0.1</v>
@@ -1843,29 +2464,29 @@
         <v>20000</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="1"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>2018011309</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -1877,24 +2498,24 @@
         <v>20000</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
         <v>2018011309</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -1906,24 +2527,24 @@
         <v>50000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1">
         <v>2018011309</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0.1</v>
@@ -1935,24 +2556,24 @@
         <v>50000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1">
         <v>2018011309</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0.1</v>
@@ -1964,27 +2585,27 @@
         <v>20000</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>20000308</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0.1</v>
@@ -1996,24 +2617,24 @@
         <v>20000</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1">
         <v>20000308</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0.1</v>
@@ -2025,24 +2646,24 @@
         <v>50000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>20000308</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0.1</v>
@@ -2054,24 +2675,24 @@
         <v>50000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1">
         <v>20000308</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0.1</v>
@@ -2083,13 +2704,398 @@
         <v>20000</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="25.8" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.8" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.93333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.7333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.4666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>10000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>10000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>10000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>10000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>